--- a/fuentes/contenidos/grado07/guion11/escaleta mat 7 tem 11.xlsx
+++ b/fuentes/contenidos/grado07/guion11/escaleta mat 7 tem 11.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Matematicas\fuentes\contenidos\grado07\guion11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11592"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="383">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1170,6 +1170,9 @@
   </si>
   <si>
     <t>Actividades para decucir áreas de figuras sombreadas</t>
+  </si>
+  <si>
+    <t>El área del círculo</t>
   </si>
 </sst>
 </file>
@@ -1576,69 +1579,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1720,6 +1660,69 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2027,129 +2030,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X380"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F24:F42"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="31" style="4" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="48.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11" style="70" customWidth="1"/>
-    <col min="10" max="10" width="73.5703125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="4" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="68.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="92" customWidth="1"/>
-    <col min="18" max="18" width="23" style="93" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="93" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="93" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" style="93" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" style="4"/>
-    <col min="23" max="24" width="11.42578125" style="5"/>
-    <col min="25" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="16.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="67.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="48.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="80.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11" style="49" customWidth="1"/>
+    <col min="10" max="10" width="73.5546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" style="4" customWidth="1"/>
+    <col min="13" max="14" width="9.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="68.5546875" style="5" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" style="5" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="20.44140625" style="71" customWidth="1"/>
+    <col min="18" max="18" width="23" style="72" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" style="72" customWidth="1"/>
+    <col min="20" max="20" width="25.88671875" style="72" customWidth="1"/>
+    <col min="21" max="21" width="21.6640625" style="72" customWidth="1"/>
+    <col min="22" max="22" width="11.44140625" style="4"/>
+    <col min="23" max="24" width="11.44140625" style="5"/>
+    <col min="25" max="16384" width="11.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="49" t="s">
+      <c r="N1" s="95"/>
+      <c r="O1" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="67" t="s">
+      <c r="R1" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="66" t="s">
+      <c r="T1" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="80" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="55"/>
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="88"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="90"/>
       <c r="M2" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="65"/>
-    </row>
-    <row r="3" spans="1:24" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="80"/>
+    </row>
+    <row r="3" spans="1:24" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -2162,7 +2165,7 @@
       <c r="D3" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="75"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
         <v>147</v>
@@ -2170,7 +2173,7 @@
       <c r="H3" s="11">
         <v>1</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="50" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="20" t="s">
@@ -2179,38 +2182,38 @@
       <c r="K3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="51" t="s">
         <v>312</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>55</v>
       </c>
       <c r="N3" s="3"/>
-      <c r="O3" s="98" t="s">
+      <c r="O3" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="P3" s="99" t="s">
+      <c r="P3" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="Q3" s="82">
+      <c r="Q3" s="61">
         <v>6</v>
       </c>
-      <c r="R3" s="83" t="s">
+      <c r="R3" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="S3" s="82" t="s">
+      <c r="S3" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="T3" s="84" t="s">
+      <c r="T3" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="U3" s="82" t="s">
+      <c r="U3" s="61" t="s">
         <v>300</v>
       </c>
       <c r="W3" s="16"/>
       <c r="X3" s="16"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -2226,7 +2229,7 @@
       <c r="E4" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="47" t="s">
         <v>343</v>
       </c>
       <c r="G4" s="12" t="s">
@@ -2235,7 +2238,7 @@
       <c r="H4" s="19">
         <v>2</v>
       </c>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="52" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="20" t="s">
@@ -2244,38 +2247,38 @@
       <c r="K4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="72" t="s">
+      <c r="L4" s="51" t="s">
         <v>312</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>58</v>
       </c>
       <c r="N4" s="3"/>
-      <c r="O4" s="98" t="s">
+      <c r="O4" s="77" t="s">
         <v>209</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="Q4" s="82">
+      <c r="Q4" s="61">
         <v>6</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="T4" s="84" t="s">
+      <c r="T4" s="63" t="s">
         <v>301</v>
       </c>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="61" t="s">
         <v>300</v>
       </c>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -2298,7 +2301,7 @@
       <c r="H5" s="11">
         <v>3</v>
       </c>
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="26" t="s">
@@ -2307,36 +2310,36 @@
       <c r="K5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="O5" s="98"/>
-      <c r="P5" s="99" t="s">
+      <c r="O5" s="77"/>
+      <c r="P5" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="85">
+      <c r="Q5" s="64">
         <v>7</v>
       </c>
-      <c r="R5" s="86" t="s">
+      <c r="R5" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="S5" s="85" t="s">
+      <c r="S5" s="64" t="s">
         <v>317</v>
       </c>
-      <c r="T5" s="87" t="s">
+      <c r="T5" s="66" t="s">
         <v>318</v>
       </c>
-      <c r="U5" s="85" t="s">
+      <c r="U5" s="64" t="s">
         <v>319</v>
       </c>
       <c r="W5" s="16"/>
       <c r="X5" s="16"/>
     </row>
-    <row r="6" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -2359,7 +2362,7 @@
       <c r="H6" s="19">
         <v>4</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="27" t="s">
@@ -2368,36 +2371,36 @@
       <c r="K6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="72" t="s">
+      <c r="L6" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M6" s="14"/>
-      <c r="N6" s="94" t="s">
+      <c r="N6" s="73" t="s">
         <v>243</v>
       </c>
       <c r="O6" s="15"/>
-      <c r="P6" s="79" t="s">
+      <c r="P6" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="95">
+      <c r="Q6" s="74">
         <v>7</v>
       </c>
-      <c r="R6" s="96" t="s">
+      <c r="R6" s="75" t="s">
         <v>316</v>
       </c>
-      <c r="S6" s="95" t="s">
+      <c r="S6" s="74" t="s">
         <v>317</v>
       </c>
-      <c r="T6" s="97" t="s">
+      <c r="T6" s="76" t="s">
         <v>320</v>
       </c>
-      <c r="U6" s="95" t="s">
+      <c r="U6" s="74" t="s">
         <v>319</v>
       </c>
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
     </row>
-    <row r="7" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -2420,7 +2423,7 @@
       <c r="H7" s="11">
         <v>5</v>
       </c>
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="53" t="s">
         <v>240</v>
       </c>
       <c r="J7" s="28" t="s">
@@ -2429,7 +2432,7 @@
       <c r="K7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="72" t="s">
+      <c r="L7" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M7" s="22"/>
@@ -2437,28 +2440,28 @@
         <v>244</v>
       </c>
       <c r="O7" s="15"/>
-      <c r="P7" s="73" t="s">
+      <c r="P7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="85">
+      <c r="Q7" s="64">
         <v>7</v>
       </c>
-      <c r="R7" s="86" t="s">
+      <c r="R7" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="S7" s="85" t="s">
+      <c r="S7" s="64" t="s">
         <v>317</v>
       </c>
-      <c r="T7" s="87" t="s">
+      <c r="T7" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="U7" s="85" t="s">
+      <c r="U7" s="64" t="s">
         <v>319</v>
       </c>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
     </row>
-    <row r="8" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -2474,7 +2477,7 @@
       <c r="E8" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="47" t="s">
         <v>344</v>
       </c>
       <c r="G8" s="24" t="s">
@@ -2483,7 +2486,7 @@
       <c r="H8" s="19">
         <v>6</v>
       </c>
-      <c r="I8" s="74" t="s">
+      <c r="I8" s="53" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="28" t="s">
@@ -2492,7 +2495,7 @@
       <c r="K8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="72" t="s">
+      <c r="L8" s="51" t="s">
         <v>312</v>
       </c>
       <c r="M8" s="22" t="s">
@@ -2502,28 +2505,28 @@
       <c r="O8" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="P8" s="73" t="s">
+      <c r="P8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="82">
+      <c r="Q8" s="61">
         <v>6</v>
       </c>
-      <c r="R8" s="83" t="s">
+      <c r="R8" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="S8" s="82" t="s">
+      <c r="S8" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="T8" s="84" t="s">
+      <c r="T8" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="U8" s="82" t="s">
+      <c r="U8" s="61" t="s">
         <v>300</v>
       </c>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
     </row>
-    <row r="9" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -2546,7 +2549,7 @@
       <c r="H9" s="11">
         <v>7</v>
       </c>
-      <c r="I9" s="74" t="s">
+      <c r="I9" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="28" t="s">
@@ -2555,7 +2558,7 @@
       <c r="K9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="72" t="s">
+      <c r="L9" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M9" s="22"/>
@@ -2565,28 +2568,28 @@
       <c r="O9" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="P9" s="73" t="s">
+      <c r="P9" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="82">
+      <c r="Q9" s="61">
         <v>6</v>
       </c>
-      <c r="R9" s="83" t="s">
+      <c r="R9" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="S9" s="82" t="s">
+      <c r="S9" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="T9" s="84" t="s">
+      <c r="T9" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="U9" s="82" t="s">
+      <c r="U9" s="61" t="s">
         <v>307</v>
       </c>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
     </row>
-    <row r="10" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -2602,7 +2605,7 @@
       <c r="E10" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="47" t="s">
         <v>366</v>
       </c>
       <c r="G10" s="24" t="s">
@@ -2611,7 +2614,7 @@
       <c r="H10" s="19">
         <v>8</v>
       </c>
-      <c r="I10" s="74" t="s">
+      <c r="I10" s="53" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="27" t="s">
@@ -2620,7 +2623,7 @@
       <c r="K10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="72" t="s">
+      <c r="L10" s="51" t="s">
         <v>312</v>
       </c>
       <c r="M10" s="22" t="s">
@@ -2630,28 +2633,28 @@
       <c r="O10" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="P10" s="73" t="s">
+      <c r="P10" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="82">
+      <c r="Q10" s="61">
         <v>6</v>
       </c>
-      <c r="R10" s="83" t="s">
+      <c r="R10" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="S10" s="82" t="s">
+      <c r="S10" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="T10" s="84" t="s">
+      <c r="T10" s="63" t="s">
         <v>305</v>
       </c>
-      <c r="U10" s="82" t="s">
+      <c r="U10" s="61" t="s">
         <v>300</v>
       </c>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
     </row>
-    <row r="11" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -2674,7 +2677,7 @@
       <c r="H11" s="11">
         <v>9</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="27" t="s">
@@ -2683,7 +2686,7 @@
       <c r="K11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="72" t="s">
+      <c r="L11" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M11" s="22"/>
@@ -2693,28 +2696,28 @@
       <c r="O11" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="P11" s="73" t="s">
+      <c r="P11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="82">
+      <c r="Q11" s="61">
         <v>6</v>
       </c>
-      <c r="R11" s="83" t="s">
+      <c r="R11" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="S11" s="82" t="s">
+      <c r="S11" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="T11" s="84" t="s">
+      <c r="T11" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="U11" s="82" t="s">
+      <c r="U11" s="61" t="s">
         <v>307</v>
       </c>
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
     </row>
-    <row r="12" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -2727,7 +2730,7 @@
       <c r="D12" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="55" t="s">
         <v>125</v>
       </c>
       <c r="F12" s="18"/>
@@ -2737,7 +2740,7 @@
       <c r="H12" s="11">
         <v>10</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="27" t="s">
@@ -2746,7 +2749,7 @@
       <c r="K12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="72" t="s">
+      <c r="L12" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M12" s="22"/>
@@ -2756,28 +2759,28 @@
       <c r="O12" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="P12" s="73" t="s">
+      <c r="P12" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="82">
+      <c r="Q12" s="61">
         <v>6</v>
       </c>
-      <c r="R12" s="83" t="s">
+      <c r="R12" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="S12" s="82" t="s">
+      <c r="S12" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="T12" s="84" t="s">
+      <c r="T12" s="63" t="s">
         <v>333</v>
       </c>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="61" t="s">
         <v>307</v>
       </c>
       <c r="W12" s="16"/>
       <c r="X12" s="16"/>
     </row>
-    <row r="13" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -2800,7 +2803,7 @@
       <c r="H13" s="11">
         <v>11</v>
       </c>
-      <c r="I13" s="74" t="s">
+      <c r="I13" s="53" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="27" t="s">
@@ -2809,7 +2812,7 @@
       <c r="K13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="72" t="s">
+      <c r="L13" s="51" t="s">
         <v>312</v>
       </c>
       <c r="M13" s="22" t="s">
@@ -2819,28 +2822,28 @@
       <c r="O13" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="P13" s="73" t="s">
+      <c r="P13" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="85">
+      <c r="Q13" s="64">
         <v>6</v>
       </c>
-      <c r="R13" s="86" t="s">
+      <c r="R13" s="65" t="s">
         <v>302</v>
       </c>
-      <c r="S13" s="85" t="s">
+      <c r="S13" s="64" t="s">
         <v>330</v>
       </c>
-      <c r="T13" s="88" t="s">
+      <c r="T13" s="67" t="s">
         <v>308</v>
       </c>
-      <c r="U13" s="85" t="s">
+      <c r="U13" s="64" t="s">
         <v>309</v>
       </c>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
     </row>
-    <row r="14" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -2863,7 +2866,7 @@
       <c r="H14" s="19">
         <v>12</v>
       </c>
-      <c r="I14" s="74" t="s">
+      <c r="I14" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="27" t="s">
@@ -2872,7 +2875,7 @@
       <c r="K14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="72" t="s">
+      <c r="L14" s="51" t="s">
         <v>312</v>
       </c>
       <c r="M14" s="22" t="s">
@@ -2882,28 +2885,28 @@
       <c r="O14" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="P14" s="73" t="s">
+      <c r="P14" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="82">
+      <c r="Q14" s="61">
         <v>6</v>
       </c>
-      <c r="R14" s="83" t="s">
+      <c r="R14" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="S14" s="82" t="s">
+      <c r="S14" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="T14" s="84" t="s">
+      <c r="T14" s="63" t="s">
         <v>331</v>
       </c>
-      <c r="U14" s="82" t="s">
+      <c r="U14" s="61" t="s">
         <v>300</v>
       </c>
       <c r="W14" s="16"/>
       <c r="X14" s="16"/>
     </row>
-    <row r="15" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
@@ -2926,7 +2929,7 @@
       <c r="H15" s="11">
         <v>13</v>
       </c>
-      <c r="I15" s="74" t="s">
+      <c r="I15" s="53" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="27" t="s">
@@ -2935,7 +2938,7 @@
       <c r="K15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="72" t="s">
+      <c r="L15" s="51" t="s">
         <v>312</v>
       </c>
       <c r="M15" s="22" t="s">
@@ -2945,28 +2948,28 @@
       <c r="O15" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="P15" s="73" t="s">
+      <c r="P15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="82">
+      <c r="Q15" s="61">
         <v>6</v>
       </c>
-      <c r="R15" s="83" t="s">
+      <c r="R15" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="S15" s="82" t="s">
+      <c r="S15" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="T15" s="84" t="s">
+      <c r="T15" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="U15" s="82" t="s">
+      <c r="U15" s="61" t="s">
         <v>300</v>
       </c>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
     </row>
-    <row r="16" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -2989,7 +2992,7 @@
       <c r="H16" s="19">
         <v>14</v>
       </c>
-      <c r="I16" s="74" t="s">
+      <c r="I16" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="27" t="s">
@@ -2998,7 +3001,7 @@
       <c r="K16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="72" t="s">
+      <c r="L16" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M16" s="22"/>
@@ -3008,28 +3011,28 @@
       <c r="O16" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="P16" s="73" t="s">
+      <c r="P16" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="82">
+      <c r="Q16" s="61">
         <v>6</v>
       </c>
-      <c r="R16" s="83" t="s">
+      <c r="R16" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="S16" s="82" t="s">
+      <c r="S16" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="T16" s="84" t="s">
+      <c r="T16" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="U16" s="82" t="s">
+      <c r="U16" s="61" t="s">
         <v>307</v>
       </c>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
     </row>
-    <row r="17" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
@@ -3050,7 +3053,7 @@
       <c r="H17" s="11">
         <v>15</v>
       </c>
-      <c r="I17" s="74" t="s">
+      <c r="I17" s="53" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="27" t="s">
@@ -3059,7 +3062,7 @@
       <c r="K17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="72" t="s">
+      <c r="L17" s="51" t="s">
         <v>312</v>
       </c>
       <c r="M17" s="22" t="s">
@@ -3069,28 +3072,28 @@
       <c r="O17" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P17" s="73" t="s">
+      <c r="P17" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="Q17" s="82">
+      <c r="Q17" s="61">
         <v>6</v>
       </c>
-      <c r="R17" s="83" t="s">
+      <c r="R17" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="S17" s="82" t="s">
+      <c r="S17" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="T17" s="84" t="s">
+      <c r="T17" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="U17" s="82" t="s">
+      <c r="U17" s="61" t="s">
         <v>300</v>
       </c>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
     </row>
-    <row r="18" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
@@ -3113,7 +3116,7 @@
       <c r="H18" s="19">
         <v>16</v>
       </c>
-      <c r="I18" s="74" t="s">
+      <c r="I18" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="27" t="s">
@@ -3122,7 +3125,7 @@
       <c r="K18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="72" t="s">
+      <c r="L18" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M18" s="22"/>
@@ -3132,28 +3135,28 @@
       <c r="O18" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="P18" s="73" t="s">
+      <c r="P18" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="82">
+      <c r="Q18" s="61">
         <v>6</v>
       </c>
-      <c r="R18" s="83" t="s">
+      <c r="R18" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="S18" s="82" t="s">
+      <c r="S18" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="T18" s="84" t="s">
+      <c r="T18" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="U18" s="82" t="s">
+      <c r="U18" s="61" t="s">
         <v>307</v>
       </c>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
@@ -3176,7 +3179,7 @@
       <c r="H19" s="11">
         <v>17</v>
       </c>
-      <c r="I19" s="74" t="s">
+      <c r="I19" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="27" t="s">
@@ -3185,7 +3188,7 @@
       <c r="K19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="72" t="s">
+      <c r="L19" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M19" s="22"/>
@@ -3195,28 +3198,28 @@
       <c r="O19" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="P19" s="73" t="s">
+      <c r="P19" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="82">
+      <c r="Q19" s="61">
         <v>6</v>
       </c>
-      <c r="R19" s="83" t="s">
+      <c r="R19" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="S19" s="82" t="s">
+      <c r="S19" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="T19" s="84" t="s">
+      <c r="T19" s="63" t="s">
         <v>370</v>
       </c>
-      <c r="U19" s="82" t="s">
+      <c r="U19" s="61" t="s">
         <v>307</v>
       </c>
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
     </row>
-    <row r="20" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
@@ -3239,7 +3242,7 @@
       <c r="H20" s="19">
         <v>18</v>
       </c>
-      <c r="I20" s="74" t="s">
+      <c r="I20" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="27" t="s">
@@ -3248,7 +3251,7 @@
       <c r="K20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="72" t="s">
+      <c r="L20" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M20" s="22"/>
@@ -3258,28 +3261,28 @@
       <c r="O20" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="P20" s="73" t="s">
+      <c r="P20" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="82">
+      <c r="Q20" s="61">
         <v>6</v>
       </c>
-      <c r="R20" s="83" t="s">
+      <c r="R20" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="S20" s="82" t="s">
+      <c r="S20" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="T20" s="84" t="s">
+      <c r="T20" s="63" t="s">
         <v>335</v>
       </c>
-      <c r="U20" s="82" t="s">
+      <c r="U20" s="61" t="s">
         <v>307</v>
       </c>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
     </row>
-    <row r="21" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
@@ -3302,7 +3305,7 @@
       <c r="H21" s="11">
         <v>19</v>
       </c>
-      <c r="I21" s="74" t="s">
+      <c r="I21" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="27" t="s">
@@ -3311,7 +3314,7 @@
       <c r="K21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="72" t="s">
+      <c r="L21" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M21" s="22"/>
@@ -3321,28 +3324,28 @@
       <c r="O21" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="P21" s="73" t="s">
+      <c r="P21" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="82">
+      <c r="Q21" s="61">
         <v>6</v>
       </c>
-      <c r="R21" s="83" t="s">
+      <c r="R21" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="S21" s="82" t="s">
+      <c r="S21" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="T21" s="84" t="s">
+      <c r="T21" s="63" t="s">
         <v>337</v>
       </c>
-      <c r="U21" s="82" t="s">
+      <c r="U21" s="61" t="s">
         <v>307</v>
       </c>
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
     </row>
-    <row r="22" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>15</v>
       </c>
@@ -3365,7 +3368,7 @@
       <c r="H22" s="11">
         <v>20</v>
       </c>
-      <c r="I22" s="74" t="s">
+      <c r="I22" s="53" t="s">
         <v>19</v>
       </c>
       <c r="J22" s="20" t="s">
@@ -3374,7 +3377,7 @@
       <c r="K22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="72" t="s">
+      <c r="L22" s="51" t="s">
         <v>312</v>
       </c>
       <c r="M22" s="22" t="s">
@@ -3384,28 +3387,28 @@
       <c r="O22" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="P22" s="73" t="s">
+      <c r="P22" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="Q22" s="82">
+      <c r="Q22" s="61">
         <v>6</v>
       </c>
-      <c r="R22" s="83" t="s">
+      <c r="R22" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="S22" s="82" t="s">
+      <c r="S22" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="T22" s="84" t="s">
+      <c r="T22" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="U22" s="82" t="s">
+      <c r="U22" s="61" t="s">
         <v>300</v>
       </c>
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
     </row>
-    <row r="23" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>15</v>
       </c>
@@ -3428,7 +3431,7 @@
       <c r="H23" s="11">
         <v>21</v>
       </c>
-      <c r="I23" s="74" t="s">
+      <c r="I23" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="27" t="s">
@@ -3437,7 +3440,7 @@
       <c r="K23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="72" t="s">
+      <c r="L23" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M23" s="22"/>
@@ -3447,28 +3450,28 @@
       <c r="O23" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="P23" s="73" t="s">
+      <c r="P23" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="82">
+      <c r="Q23" s="61">
         <v>6</v>
       </c>
-      <c r="R23" s="83" t="s">
+      <c r="R23" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="S23" s="82" t="s">
+      <c r="S23" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="T23" s="84" t="s">
+      <c r="T23" s="63" t="s">
         <v>371</v>
       </c>
-      <c r="U23" s="82" t="s">
+      <c r="U23" s="61" t="s">
         <v>307</v>
       </c>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
     </row>
-    <row r="24" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>15</v>
       </c>
@@ -3491,7 +3494,7 @@
       <c r="H24" s="19">
         <v>22</v>
       </c>
-      <c r="I24" s="74" t="s">
+      <c r="I24" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="27" t="s">
@@ -3500,7 +3503,7 @@
       <c r="K24" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="72" t="s">
+      <c r="L24" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M24" s="22"/>
@@ -3508,28 +3511,28 @@
       <c r="O24" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="P24" s="73" t="s">
+      <c r="P24" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="85">
+      <c r="Q24" s="64">
         <v>8</v>
       </c>
-      <c r="R24" s="86" t="s">
+      <c r="R24" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="S24" s="85" t="s">
+      <c r="S24" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="T24" s="87" t="s">
+      <c r="T24" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="U24" s="85" t="s">
+      <c r="U24" s="64" t="s">
         <v>324</v>
       </c>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
     </row>
-    <row r="25" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>15</v>
       </c>
@@ -3542,7 +3545,9 @@
       <c r="D25" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="30"/>
+      <c r="E25" s="30" t="s">
+        <v>131</v>
+      </c>
       <c r="F25" s="18"/>
       <c r="G25" s="24" t="s">
         <v>350</v>
@@ -3550,7 +3555,7 @@
       <c r="H25" s="11">
         <v>23</v>
       </c>
-      <c r="I25" s="74" t="s">
+      <c r="I25" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J25" s="27" t="s">
@@ -3559,7 +3564,7 @@
       <c r="K25" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="72" t="s">
+      <c r="L25" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M25" s="22"/>
@@ -3567,28 +3572,28 @@
       <c r="O25" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="P25" s="73" t="s">
+      <c r="P25" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="85">
+      <c r="Q25" s="64">
         <v>8</v>
       </c>
-      <c r="R25" s="86" t="s">
+      <c r="R25" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="S25" s="85" t="s">
+      <c r="S25" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="T25" s="87" t="s">
+      <c r="T25" s="66" t="s">
         <v>351</v>
       </c>
-      <c r="U25" s="85" t="s">
+      <c r="U25" s="64" t="s">
         <v>324</v>
       </c>
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
     </row>
-    <row r="26" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>15</v>
       </c>
@@ -3611,7 +3616,7 @@
       <c r="H26" s="19">
         <v>24</v>
       </c>
-      <c r="I26" s="74" t="s">
+      <c r="I26" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="27" t="s">
@@ -3620,7 +3625,7 @@
       <c r="K26" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="72" t="s">
+      <c r="L26" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M26" s="22"/>
@@ -3630,28 +3635,28 @@
       <c r="O26" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="P26" s="73" t="s">
+      <c r="P26" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="85">
+      <c r="Q26" s="64">
         <v>8</v>
       </c>
-      <c r="R26" s="86" t="s">
+      <c r="R26" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="S26" s="85" t="s">
+      <c r="S26" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="T26" s="87" t="s">
+      <c r="T26" s="66" t="s">
         <v>323</v>
       </c>
-      <c r="U26" s="85" t="s">
+      <c r="U26" s="64" t="s">
         <v>324</v>
       </c>
       <c r="W26" s="16"/>
       <c r="X26" s="16"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>15</v>
       </c>
@@ -3672,7 +3677,7 @@
       <c r="H27" s="11">
         <v>25</v>
       </c>
-      <c r="I27" s="74" t="s">
+      <c r="I27" s="53" t="s">
         <v>19</v>
       </c>
       <c r="J27" s="27" t="s">
@@ -3681,7 +3686,7 @@
       <c r="K27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="72" t="s">
+      <c r="L27" s="51" t="s">
         <v>312</v>
       </c>
       <c r="M27" s="22" t="s">
@@ -3691,28 +3696,28 @@
       <c r="O27" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="P27" s="73" t="s">
+      <c r="P27" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="Q27" s="82">
+      <c r="Q27" s="61">
         <v>6</v>
       </c>
-      <c r="R27" s="83" t="s">
+      <c r="R27" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="S27" s="82" t="s">
+      <c r="S27" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="T27" s="84" t="s">
+      <c r="T27" s="63" t="s">
         <v>372</v>
       </c>
-      <c r="U27" s="82" t="s">
+      <c r="U27" s="61" t="s">
         <v>300</v>
       </c>
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>15</v>
       </c>
@@ -3733,7 +3738,7 @@
       <c r="H28" s="19">
         <v>26</v>
       </c>
-      <c r="I28" s="74" t="s">
+      <c r="I28" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="27" t="s">
@@ -3742,30 +3747,30 @@
       <c r="K28" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="72"/>
+      <c r="L28" s="51"/>
       <c r="M28" s="22"/>
       <c r="N28" s="6"/>
       <c r="O28" s="23"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="85">
+      <c r="P28" s="52"/>
+      <c r="Q28" s="64">
         <v>8</v>
       </c>
-      <c r="R28" s="86" t="s">
+      <c r="R28" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="S28" s="85" t="s">
+      <c r="S28" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="T28" s="87" t="s">
+      <c r="T28" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="U28" s="85" t="s">
+      <c r="U28" s="64" t="s">
         <v>324</v>
       </c>
       <c r="W28" s="16"/>
       <c r="X28" s="16"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>15</v>
       </c>
@@ -3788,7 +3793,7 @@
       <c r="H29" s="11">
         <v>27</v>
       </c>
-      <c r="I29" s="74" t="s">
+      <c r="I29" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="27" t="s">
@@ -3797,7 +3802,7 @@
       <c r="K29" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="72" t="s">
+      <c r="L29" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M29" s="22"/>
@@ -3805,28 +3810,28 @@
       <c r="O29" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="P29" s="73" t="s">
+      <c r="P29" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="85">
+      <c r="Q29" s="64">
         <v>8</v>
       </c>
-      <c r="R29" s="86" t="s">
+      <c r="R29" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="S29" s="85" t="s">
+      <c r="S29" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="T29" s="87" t="s">
+      <c r="T29" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="U29" s="85" t="s">
+      <c r="U29" s="64" t="s">
         <v>324</v>
       </c>
       <c r="W29" s="16"/>
       <c r="X29" s="16"/>
     </row>
-    <row r="30" spans="1:24" s="42" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" s="42" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>15</v>
       </c>
@@ -3849,7 +3854,7 @@
       <c r="H30" s="19">
         <v>28</v>
       </c>
-      <c r="I30" s="74" t="s">
+      <c r="I30" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="27" t="s">
@@ -3858,7 +3863,7 @@
       <c r="K30" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="72" t="s">
+      <c r="L30" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M30" s="22"/>
@@ -3866,28 +3871,28 @@
       <c r="O30" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="P30" s="80" t="s">
+      <c r="P30" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="82" t="s">
+      <c r="Q30" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="R30" s="83" t="s">
+      <c r="R30" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="S30" s="82" t="s">
+      <c r="S30" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="T30" s="84" t="s">
+      <c r="T30" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="U30" s="82" t="s">
+      <c r="U30" s="61" t="s">
         <v>304</v>
       </c>
       <c r="W30" s="43"/>
       <c r="X30" s="43"/>
     </row>
-    <row r="31" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>15</v>
       </c>
@@ -3908,7 +3913,7 @@
       <c r="H31" s="11">
         <v>29</v>
       </c>
-      <c r="I31" s="74" t="s">
+      <c r="I31" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="27" t="s">
@@ -3917,30 +3922,30 @@
       <c r="K31" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="72"/>
+      <c r="L31" s="51"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
       <c r="O31" s="41"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="85">
+      <c r="P31" s="59"/>
+      <c r="Q31" s="64">
         <v>8</v>
       </c>
-      <c r="R31" s="86" t="s">
+      <c r="R31" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="S31" s="85" t="s">
+      <c r="S31" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="T31" s="87" t="s">
+      <c r="T31" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="U31" s="85" t="s">
+      <c r="U31" s="64" t="s">
         <v>324</v>
       </c>
       <c r="W31" s="43"/>
       <c r="X31" s="43"/>
     </row>
-    <row r="32" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>15</v>
       </c>
@@ -3961,7 +3966,7 @@
       <c r="H32" s="11">
         <v>30</v>
       </c>
-      <c r="I32" s="74" t="s">
+      <c r="I32" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J32" s="27" t="s">
@@ -3970,30 +3975,30 @@
       <c r="K32" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="72"/>
+      <c r="L32" s="51"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="41"/>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="85">
+      <c r="P32" s="59"/>
+      <c r="Q32" s="64">
         <v>8</v>
       </c>
-      <c r="R32" s="86" t="s">
+      <c r="R32" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="S32" s="85" t="s">
+      <c r="S32" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="T32" s="87" t="s">
+      <c r="T32" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="U32" s="85" t="s">
+      <c r="U32" s="64" t="s">
         <v>324</v>
       </c>
       <c r="W32" s="43"/>
       <c r="X32" s="43"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>15</v>
       </c>
@@ -4016,7 +4021,7 @@
       <c r="H33" s="11">
         <v>31</v>
       </c>
-      <c r="I33" s="74" t="s">
+      <c r="I33" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J33" s="27" t="s">
@@ -4025,7 +4030,7 @@
       <c r="K33" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="72" t="s">
+      <c r="L33" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M33" s="22"/>
@@ -4035,28 +4040,28 @@
       <c r="O33" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="P33" s="73" t="s">
+      <c r="P33" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="85">
+      <c r="Q33" s="64">
         <v>8</v>
       </c>
-      <c r="R33" s="86" t="s">
+      <c r="R33" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="S33" s="85" t="s">
+      <c r="S33" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="T33" s="87" t="s">
+      <c r="T33" s="66" t="s">
         <v>325</v>
       </c>
-      <c r="U33" s="85" t="s">
+      <c r="U33" s="64" t="s">
         <v>324</v>
       </c>
       <c r="W33" s="16"/>
       <c r="X33" s="16"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>15</v>
       </c>
@@ -4067,7 +4072,7 @@
         <v>127</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>146</v>
+        <v>382</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="18"/>
@@ -4077,7 +4082,7 @@
       <c r="H34" s="19">
         <v>32</v>
       </c>
-      <c r="I34" s="74" t="s">
+      <c r="I34" s="53" t="s">
         <v>19</v>
       </c>
       <c r="J34" s="27" t="s">
@@ -4086,7 +4091,7 @@
       <c r="K34" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L34" s="72" t="s">
+      <c r="L34" s="51" t="s">
         <v>312</v>
       </c>
       <c r="M34" s="22"/>
@@ -4094,28 +4099,28 @@
       <c r="O34" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="P34" s="73" t="s">
+      <c r="P34" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="Q34" s="85">
+      <c r="Q34" s="64">
         <v>8</v>
       </c>
-      <c r="R34" s="86" t="s">
+      <c r="R34" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="S34" s="85" t="s">
+      <c r="S34" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="T34" s="87" t="s">
+      <c r="T34" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="U34" s="85" t="s">
+      <c r="U34" s="64" t="s">
         <v>324</v>
       </c>
       <c r="W34" s="16"/>
       <c r="X34" s="16"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>15</v>
       </c>
@@ -4126,7 +4131,7 @@
         <v>127</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>146</v>
+        <v>382</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="18"/>
@@ -4136,7 +4141,7 @@
       <c r="H35" s="11">
         <v>33</v>
       </c>
-      <c r="I35" s="74" t="s">
+      <c r="I35" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J35" s="27" t="s">
@@ -4145,7 +4150,7 @@
       <c r="K35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="72" t="s">
+      <c r="L35" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M35" s="22"/>
@@ -4153,28 +4158,28 @@
       <c r="O35" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="P35" s="73" t="s">
+      <c r="P35" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="Q35" s="89">
+      <c r="Q35" s="68">
         <v>8</v>
       </c>
-      <c r="R35" s="90" t="s">
+      <c r="R35" s="69" t="s">
         <v>316</v>
       </c>
-      <c r="S35" s="89" t="s">
+      <c r="S35" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="T35" s="91" t="s">
+      <c r="T35" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="U35" s="89" t="s">
+      <c r="U35" s="68" t="s">
         <v>324</v>
       </c>
       <c r="W35" s="16"/>
       <c r="X35" s="16"/>
     </row>
-    <row r="36" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>15</v>
       </c>
@@ -4185,7 +4190,7 @@
         <v>127</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>146</v>
+        <v>382</v>
       </c>
       <c r="E36" s="30" t="s">
         <v>146</v>
@@ -4197,7 +4202,7 @@
       <c r="H36" s="19">
         <v>34</v>
       </c>
-      <c r="I36" s="74" t="s">
+      <c r="I36" s="53" t="s">
         <v>19</v>
       </c>
       <c r="J36" s="27" t="s">
@@ -4206,7 +4211,7 @@
       <c r="K36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="72" t="s">
+      <c r="L36" s="51" t="s">
         <v>312</v>
       </c>
       <c r="M36" s="22" t="s">
@@ -4216,28 +4221,28 @@
       <c r="O36" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="P36" s="80" t="s">
+      <c r="P36" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="Q36" s="82">
+      <c r="Q36" s="61">
         <v>6</v>
       </c>
-      <c r="R36" s="83" t="s">
+      <c r="R36" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="S36" s="82" t="s">
+      <c r="S36" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="T36" s="84" t="s">
+      <c r="T36" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="U36" s="82" t="s">
+      <c r="U36" s="61" t="s">
         <v>300</v>
       </c>
       <c r="W36" s="43"/>
       <c r="X36" s="43"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>15</v>
       </c>
@@ -4248,7 +4253,7 @@
         <v>127</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>146</v>
+        <v>382</v>
       </c>
       <c r="E37" s="30" t="s">
         <v>146</v>
@@ -4260,7 +4265,7 @@
       <c r="H37" s="11">
         <v>35</v>
       </c>
-      <c r="I37" s="74" t="s">
+      <c r="I37" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="27" t="s">
@@ -4269,7 +4274,7 @@
       <c r="K37" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L37" s="72" t="s">
+      <c r="L37" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M37" s="22"/>
@@ -4277,28 +4282,28 @@
       <c r="O37" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="P37" s="73" t="s">
+      <c r="P37" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="85">
+      <c r="Q37" s="64">
         <v>8</v>
       </c>
-      <c r="R37" s="86" t="s">
+      <c r="R37" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="S37" s="85" t="s">
+      <c r="S37" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="T37" s="87" t="s">
+      <c r="T37" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="U37" s="85" t="s">
+      <c r="U37" s="64" t="s">
         <v>324</v>
       </c>
       <c r="W37" s="16"/>
       <c r="X37" s="16"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>15</v>
       </c>
@@ -4309,9 +4314,11 @@
         <v>127</v>
       </c>
       <c r="D38" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="E38" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="E38" s="30"/>
       <c r="F38" s="18"/>
       <c r="G38" s="24" t="s">
         <v>361</v>
@@ -4319,7 +4326,7 @@
       <c r="H38" s="19">
         <v>36</v>
       </c>
-      <c r="I38" s="74" t="s">
+      <c r="I38" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J38" s="27" t="s">
@@ -4328,30 +4335,30 @@
       <c r="K38" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L38" s="72"/>
+      <c r="L38" s="51"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="23"/>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="85">
+      <c r="P38" s="52"/>
+      <c r="Q38" s="64">
         <v>8</v>
       </c>
-      <c r="R38" s="86" t="s">
+      <c r="R38" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="S38" s="85" t="s">
+      <c r="S38" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="T38" s="87" t="s">
+      <c r="T38" s="66" t="s">
         <v>361</v>
       </c>
-      <c r="U38" s="85" t="s">
+      <c r="U38" s="64" t="s">
         <v>324</v>
       </c>
       <c r="W38" s="16"/>
       <c r="X38" s="16"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>15</v>
       </c>
@@ -4362,9 +4369,11 @@
         <v>127</v>
       </c>
       <c r="D39" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="E39" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="E39" s="30"/>
       <c r="F39" s="18"/>
       <c r="G39" s="24" t="s">
         <v>360</v>
@@ -4372,7 +4381,7 @@
       <c r="H39" s="11">
         <v>37</v>
       </c>
-      <c r="I39" s="74" t="s">
+      <c r="I39" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J39" s="27" t="s">
@@ -4381,30 +4390,30 @@
       <c r="K39" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L39" s="72"/>
+      <c r="L39" s="51"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="23"/>
-      <c r="P39" s="73"/>
-      <c r="Q39" s="85">
+      <c r="P39" s="52"/>
+      <c r="Q39" s="64">
         <v>8</v>
       </c>
-      <c r="R39" s="86" t="s">
+      <c r="R39" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="S39" s="85" t="s">
+      <c r="S39" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="T39" s="87" t="s">
+      <c r="T39" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="U39" s="85" t="s">
+      <c r="U39" s="64" t="s">
         <v>324</v>
       </c>
       <c r="W39" s="16"/>
       <c r="X39" s="16"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>15</v>
       </c>
@@ -4415,9 +4424,11 @@
         <v>127</v>
       </c>
       <c r="D40" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="E40" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="E40" s="30"/>
       <c r="F40" s="18"/>
       <c r="G40" s="24" t="s">
         <v>362</v>
@@ -4425,7 +4436,7 @@
       <c r="H40" s="19">
         <v>38</v>
       </c>
-      <c r="I40" s="74" t="s">
+      <c r="I40" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J40" s="27" t="s">
@@ -4434,30 +4445,30 @@
       <c r="K40" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L40" s="72"/>
+      <c r="L40" s="51"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="23"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="85">
+      <c r="P40" s="52"/>
+      <c r="Q40" s="64">
         <v>8</v>
       </c>
-      <c r="R40" s="86" t="s">
+      <c r="R40" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="S40" s="85" t="s">
+      <c r="S40" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="T40" s="87" t="s">
+      <c r="T40" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="U40" s="85" t="s">
+      <c r="U40" s="64" t="s">
         <v>324</v>
       </c>
       <c r="W40" s="16"/>
       <c r="X40" s="16"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>15</v>
       </c>
@@ -4468,9 +4479,11 @@
         <v>127</v>
       </c>
       <c r="D41" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="E41" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="E41" s="30"/>
       <c r="F41" s="18"/>
       <c r="G41" s="24" t="s">
         <v>363</v>
@@ -4478,7 +4491,7 @@
       <c r="H41" s="11">
         <v>39</v>
       </c>
-      <c r="I41" s="74" t="s">
+      <c r="I41" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J41" s="27" t="s">
@@ -4487,30 +4500,30 @@
       <c r="K41" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L41" s="72"/>
+      <c r="L41" s="51"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="23"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="85">
+      <c r="P41" s="52"/>
+      <c r="Q41" s="64">
         <v>8</v>
       </c>
-      <c r="R41" s="86" t="s">
+      <c r="R41" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="S41" s="85" t="s">
+      <c r="S41" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="T41" s="87" t="s">
+      <c r="T41" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="U41" s="85" t="s">
+      <c r="U41" s="64" t="s">
         <v>324</v>
       </c>
       <c r="W41" s="16"/>
       <c r="X41" s="16"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>15</v>
       </c>
@@ -4521,7 +4534,7 @@
         <v>127</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>146</v>
+        <v>382</v>
       </c>
       <c r="E42" s="30" t="s">
         <v>125</v>
@@ -4533,7 +4546,7 @@
       <c r="H42" s="11">
         <v>40</v>
       </c>
-      <c r="I42" s="74" t="s">
+      <c r="I42" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J42" s="27" t="s">
@@ -4542,7 +4555,7 @@
       <c r="K42" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L42" s="72" t="s">
+      <c r="L42" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M42" s="22"/>
@@ -4550,28 +4563,28 @@
       <c r="O42" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="P42" s="73" t="s">
+      <c r="P42" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="85">
+      <c r="Q42" s="64">
         <v>8</v>
       </c>
-      <c r="R42" s="86" t="s">
+      <c r="R42" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="S42" s="85" t="s">
+      <c r="S42" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="T42" s="87" t="s">
+      <c r="T42" s="66" t="s">
         <v>326</v>
       </c>
-      <c r="U42" s="85" t="s">
+      <c r="U42" s="64" t="s">
         <v>324</v>
       </c>
       <c r="W42" s="16"/>
       <c r="X42" s="16"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>15</v>
       </c>
@@ -4592,7 +4605,7 @@
       <c r="H43" s="11">
         <v>41</v>
       </c>
-      <c r="I43" s="74" t="s">
+      <c r="I43" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J43" s="27" t="s">
@@ -4601,7 +4614,7 @@
       <c r="K43" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L43" s="72" t="s">
+      <c r="L43" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M43" s="22"/>
@@ -4609,28 +4622,28 @@
       <c r="O43" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="P43" s="73" t="s">
+      <c r="P43" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="85">
+      <c r="Q43" s="64">
         <v>8</v>
       </c>
-      <c r="R43" s="86" t="s">
+      <c r="R43" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="S43" s="85" t="s">
+      <c r="S43" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="T43" s="87" t="s">
+      <c r="T43" s="66" t="s">
         <v>327</v>
       </c>
-      <c r="U43" s="85" t="s">
+      <c r="U43" s="64" t="s">
         <v>324</v>
       </c>
       <c r="W43" s="16"/>
       <c r="X43" s="16"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
@@ -4651,7 +4664,7 @@
       <c r="H44" s="19">
         <v>42</v>
       </c>
-      <c r="I44" s="74" t="s">
+      <c r="I44" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J44" s="27" t="s">
@@ -4660,7 +4673,7 @@
       <c r="K44" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L44" s="72" t="s">
+      <c r="L44" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M44" s="22"/>
@@ -4668,28 +4681,28 @@
       <c r="O44" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="P44" s="73" t="s">
+      <c r="P44" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q44" s="85">
+      <c r="Q44" s="64">
         <v>8</v>
       </c>
-      <c r="R44" s="86" t="s">
+      <c r="R44" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="S44" s="85" t="s">
+      <c r="S44" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="T44" s="87" t="s">
+      <c r="T44" s="66" t="s">
         <v>328</v>
       </c>
-      <c r="U44" s="85" t="s">
+      <c r="U44" s="64" t="s">
         <v>324</v>
       </c>
       <c r="W44" s="16"/>
       <c r="X44" s="16"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>15</v>
       </c>
@@ -4710,7 +4723,7 @@
       <c r="H45" s="11">
         <v>43</v>
       </c>
-      <c r="I45" s="74" t="s">
+      <c r="I45" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J45" s="27" t="s">
@@ -4719,7 +4732,7 @@
       <c r="K45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L45" s="72" t="s">
+      <c r="L45" s="51" t="s">
         <v>314</v>
       </c>
       <c r="M45" s="22"/>
@@ -4727,16 +4740,16 @@
       <c r="O45" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="83"/>
-      <c r="S45" s="82"/>
-      <c r="T45" s="84"/>
-      <c r="U45" s="82"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="62"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="63"/>
+      <c r="U45" s="61"/>
       <c r="W45" s="16"/>
       <c r="X45" s="16"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>15</v>
       </c>
@@ -4749,7 +4762,7 @@
       <c r="D46" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="75"/>
+      <c r="E46" s="54"/>
       <c r="F46" s="18"/>
       <c r="G46" s="24" t="s">
         <v>122</v>
@@ -4757,7 +4770,7 @@
       <c r="H46" s="19">
         <v>44</v>
       </c>
-      <c r="I46" s="74" t="s">
+      <c r="I46" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J46" s="27" t="s">
@@ -4766,7 +4779,7 @@
       <c r="K46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L46" s="72" t="s">
+      <c r="L46" s="51" t="s">
         <v>313</v>
       </c>
       <c r="M46" s="22"/>
@@ -4776,28 +4789,28 @@
       <c r="O46" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="P46" s="73" t="s">
+      <c r="P46" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="Q46" s="82">
+      <c r="Q46" s="61">
         <v>6</v>
       </c>
-      <c r="R46" s="83" t="s">
+      <c r="R46" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="S46" s="82" t="s">
+      <c r="S46" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="T46" s="84" t="s">
+      <c r="T46" s="63" t="s">
         <v>336</v>
       </c>
-      <c r="U46" s="82" t="s">
+      <c r="U46" s="61" t="s">
         <v>307</v>
       </c>
       <c r="W46" s="16"/>
       <c r="X46" s="16"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>15</v>
       </c>
@@ -4812,11 +4825,11 @@
       </c>
       <c r="E47" s="33"/>
       <c r="F47" s="18"/>
-      <c r="G47" s="69"/>
+      <c r="G47" s="48"/>
       <c r="H47" s="11">
         <v>45</v>
       </c>
-      <c r="I47" s="74" t="s">
+      <c r="I47" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J47" s="35" t="s">
@@ -4830,27 +4843,27 @@
       <c r="N47" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="O47" s="77"/>
-      <c r="P47" s="78"/>
-      <c r="Q47" s="82">
+      <c r="O47" s="56"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="61">
         <v>6</v>
       </c>
-      <c r="R47" s="83" t="s">
+      <c r="R47" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="S47" s="82" t="s">
+      <c r="S47" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="T47" s="84" t="s">
+      <c r="T47" s="63" t="s">
         <v>339</v>
       </c>
-      <c r="U47" s="82" t="s">
+      <c r="U47" s="61" t="s">
         <v>307</v>
       </c>
       <c r="W47" s="36"/>
       <c r="X47" s="36"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
@@ -4866,24 +4879,24 @@
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="18"/>
-      <c r="P48" s="81"/>
-      <c r="Q48" s="89">
+      <c r="P48" s="60"/>
+      <c r="Q48" s="68">
         <v>8</v>
       </c>
-      <c r="R48" s="90" t="s">
+      <c r="R48" s="69" t="s">
         <v>316</v>
       </c>
-      <c r="S48" s="89" t="s">
+      <c r="S48" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="T48" s="91" t="s">
+      <c r="T48" s="70" t="s">
         <v>374</v>
       </c>
-      <c r="U48" s="89" t="s">
+      <c r="U48" s="68" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
@@ -4899,14 +4912,14 @@
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="18"/>
-      <c r="P49" s="81"/>
+      <c r="P49" s="60"/>
       <c r="Q49" s="44"/>
       <c r="R49" s="45"/>
       <c r="S49" s="44"/>
       <c r="T49" s="46"/>
       <c r="U49" s="44"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
@@ -4922,14 +4935,14 @@
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="18"/>
-      <c r="P50" s="81"/>
+      <c r="P50" s="60"/>
       <c r="Q50" s="44"/>
       <c r="R50" s="45"/>
       <c r="S50" s="44"/>
       <c r="T50" s="46"/>
       <c r="U50" s="44"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
@@ -4945,14 +4958,14 @@
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="18"/>
-      <c r="P51" s="81"/>
+      <c r="P51" s="60"/>
       <c r="Q51" s="44"/>
       <c r="R51" s="45"/>
       <c r="S51" s="44"/>
       <c r="T51" s="46"/>
       <c r="U51" s="44"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
@@ -4968,14 +4981,14 @@
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="18"/>
-      <c r="P52" s="81"/>
+      <c r="P52" s="60"/>
       <c r="Q52" s="44"/>
       <c r="R52" s="45"/>
       <c r="S52" s="44"/>
       <c r="T52" s="46"/>
       <c r="U52" s="44"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
@@ -4991,14 +5004,14 @@
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="18"/>
-      <c r="P53" s="81"/>
+      <c r="P53" s="60"/>
       <c r="Q53" s="44"/>
       <c r="R53" s="45"/>
       <c r="S53" s="44"/>
       <c r="T53" s="46"/>
       <c r="U53" s="44"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="38"/>
       <c r="B54" s="33"/>
       <c r="C54" s="39"/>
@@ -5014,14 +5027,14 @@
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="18"/>
-      <c r="P54" s="81"/>
+      <c r="P54" s="60"/>
       <c r="Q54" s="44"/>
       <c r="R54" s="45"/>
       <c r="S54" s="44"/>
       <c r="T54" s="46"/>
       <c r="U54" s="44"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="38"/>
       <c r="B55" s="33"/>
       <c r="C55" s="39"/>
@@ -5037,14 +5050,14 @@
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="18"/>
-      <c r="P55" s="81"/>
+      <c r="P55" s="60"/>
       <c r="Q55" s="44"/>
       <c r="R55" s="45"/>
       <c r="S55" s="44"/>
       <c r="T55" s="46"/>
       <c r="U55" s="44"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="38"/>
       <c r="B56" s="33"/>
       <c r="C56" s="39"/>
@@ -5060,14 +5073,14 @@
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="18"/>
-      <c r="P56" s="81"/>
+      <c r="P56" s="60"/>
       <c r="Q56" s="44"/>
       <c r="R56" s="45"/>
       <c r="S56" s="44"/>
       <c r="T56" s="46"/>
       <c r="U56" s="44"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="38"/>
       <c r="B57" s="33"/>
       <c r="C57" s="39"/>
@@ -5083,14 +5096,14 @@
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="18"/>
-      <c r="P57" s="81"/>
+      <c r="P57" s="60"/>
       <c r="Q57" s="44"/>
       <c r="R57" s="45"/>
       <c r="S57" s="44"/>
       <c r="T57" s="46"/>
       <c r="U57" s="44"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
       <c r="B58" s="33"/>
       <c r="C58" s="39"/>
@@ -5106,14 +5119,14 @@
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
       <c r="O58" s="18"/>
-      <c r="P58" s="81"/>
+      <c r="P58" s="60"/>
       <c r="Q58" s="44"/>
       <c r="R58" s="45"/>
       <c r="S58" s="44"/>
       <c r="T58" s="46"/>
       <c r="U58" s="44"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="38"/>
       <c r="B59" s="33"/>
       <c r="C59" s="39"/>
@@ -5129,14 +5142,14 @@
       <c r="M59" s="22"/>
       <c r="N59" s="22"/>
       <c r="O59" s="18"/>
-      <c r="P59" s="81"/>
+      <c r="P59" s="60"/>
       <c r="Q59" s="44"/>
       <c r="R59" s="45"/>
       <c r="S59" s="44"/>
       <c r="T59" s="46"/>
       <c r="U59" s="44"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="38"/>
       <c r="B60" s="33"/>
       <c r="C60" s="39"/>
@@ -5152,14 +5165,14 @@
       <c r="M60" s="22"/>
       <c r="N60" s="22"/>
       <c r="O60" s="18"/>
-      <c r="P60" s="81"/>
+      <c r="P60" s="60"/>
       <c r="Q60" s="44"/>
       <c r="R60" s="45"/>
       <c r="S60" s="44"/>
       <c r="T60" s="46"/>
       <c r="U60" s="44"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="38"/>
       <c r="B61" s="33"/>
       <c r="C61" s="39"/>
@@ -5175,14 +5188,14 @@
       <c r="M61" s="22"/>
       <c r="N61" s="22"/>
       <c r="O61" s="18"/>
-      <c r="P61" s="81"/>
+      <c r="P61" s="60"/>
       <c r="Q61" s="44"/>
       <c r="R61" s="45"/>
       <c r="S61" s="44"/>
       <c r="T61" s="46"/>
       <c r="U61" s="44"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="38"/>
       <c r="B62" s="33"/>
       <c r="C62" s="39"/>
@@ -5198,14 +5211,14 @@
       <c r="M62" s="22"/>
       <c r="N62" s="22"/>
       <c r="O62" s="18"/>
-      <c r="P62" s="81"/>
+      <c r="P62" s="60"/>
       <c r="Q62" s="44"/>
       <c r="R62" s="45"/>
       <c r="S62" s="44"/>
       <c r="T62" s="46"/>
       <c r="U62" s="44"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="38"/>
       <c r="B63" s="33"/>
       <c r="C63" s="39"/>
@@ -5221,14 +5234,14 @@
       <c r="M63" s="22"/>
       <c r="N63" s="22"/>
       <c r="O63" s="18"/>
-      <c r="P63" s="81"/>
+      <c r="P63" s="60"/>
       <c r="Q63" s="44"/>
       <c r="R63" s="45"/>
       <c r="S63" s="44"/>
       <c r="T63" s="46"/>
       <c r="U63" s="44"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="38"/>
       <c r="B64" s="33"/>
       <c r="C64" s="39"/>
@@ -5244,14 +5257,14 @@
       <c r="M64" s="22"/>
       <c r="N64" s="22"/>
       <c r="O64" s="18"/>
-      <c r="P64" s="81"/>
+      <c r="P64" s="60"/>
       <c r="Q64" s="44"/>
       <c r="R64" s="45"/>
       <c r="S64" s="44"/>
       <c r="T64" s="46"/>
       <c r="U64" s="44"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="38"/>
       <c r="B65" s="33"/>
       <c r="C65" s="39"/>
@@ -5267,14 +5280,14 @@
       <c r="M65" s="22"/>
       <c r="N65" s="22"/>
       <c r="O65" s="18"/>
-      <c r="P65" s="81"/>
+      <c r="P65" s="60"/>
       <c r="Q65" s="44"/>
       <c r="R65" s="45"/>
       <c r="S65" s="44"/>
       <c r="T65" s="46"/>
       <c r="U65" s="44"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="38"/>
       <c r="B66" s="33"/>
       <c r="C66" s="39"/>
@@ -5290,14 +5303,14 @@
       <c r="M66" s="22"/>
       <c r="N66" s="22"/>
       <c r="O66" s="18"/>
-      <c r="P66" s="81"/>
+      <c r="P66" s="60"/>
       <c r="Q66" s="44"/>
       <c r="R66" s="45"/>
       <c r="S66" s="44"/>
       <c r="T66" s="46"/>
       <c r="U66" s="44"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="38"/>
       <c r="B67" s="33"/>
       <c r="C67" s="39"/>
@@ -5313,14 +5326,14 @@
       <c r="M67" s="22"/>
       <c r="N67" s="22"/>
       <c r="O67" s="18"/>
-      <c r="P67" s="81"/>
+      <c r="P67" s="60"/>
       <c r="Q67" s="44"/>
       <c r="R67" s="45"/>
       <c r="S67" s="44"/>
       <c r="T67" s="46"/>
       <c r="U67" s="44"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="38"/>
       <c r="B68" s="33"/>
       <c r="C68" s="39"/>
@@ -5336,14 +5349,14 @@
       <c r="M68" s="22"/>
       <c r="N68" s="22"/>
       <c r="O68" s="18"/>
-      <c r="P68" s="81"/>
+      <c r="P68" s="60"/>
       <c r="Q68" s="44"/>
       <c r="R68" s="45"/>
       <c r="S68" s="44"/>
       <c r="T68" s="46"/>
       <c r="U68" s="44"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="38"/>
       <c r="B69" s="33"/>
       <c r="C69" s="39"/>
@@ -5359,14 +5372,14 @@
       <c r="M69" s="22"/>
       <c r="N69" s="22"/>
       <c r="O69" s="18"/>
-      <c r="P69" s="81"/>
+      <c r="P69" s="60"/>
       <c r="Q69" s="44"/>
       <c r="R69" s="45"/>
       <c r="S69" s="44"/>
       <c r="T69" s="46"/>
       <c r="U69" s="44"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="38"/>
       <c r="B70" s="33"/>
       <c r="C70" s="39"/>
@@ -5382,14 +5395,14 @@
       <c r="M70" s="22"/>
       <c r="N70" s="22"/>
       <c r="O70" s="18"/>
-      <c r="P70" s="81"/>
+      <c r="P70" s="60"/>
       <c r="Q70" s="44"/>
       <c r="R70" s="45"/>
       <c r="S70" s="44"/>
       <c r="T70" s="46"/>
       <c r="U70" s="44"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="38"/>
       <c r="B71" s="33"/>
       <c r="C71" s="39"/>
@@ -5405,14 +5418,14 @@
       <c r="M71" s="22"/>
       <c r="N71" s="22"/>
       <c r="O71" s="18"/>
-      <c r="P71" s="81"/>
+      <c r="P71" s="60"/>
       <c r="Q71" s="44"/>
       <c r="R71" s="45"/>
       <c r="S71" s="44"/>
       <c r="T71" s="46"/>
       <c r="U71" s="44"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="38"/>
       <c r="B72" s="33"/>
       <c r="C72" s="39"/>
@@ -5428,14 +5441,14 @@
       <c r="M72" s="22"/>
       <c r="N72" s="22"/>
       <c r="O72" s="18"/>
-      <c r="P72" s="81"/>
+      <c r="P72" s="60"/>
       <c r="Q72" s="44"/>
       <c r="R72" s="45"/>
       <c r="S72" s="44"/>
       <c r="T72" s="46"/>
       <c r="U72" s="44"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="38"/>
       <c r="B73" s="33"/>
       <c r="C73" s="39"/>
@@ -5451,14 +5464,14 @@
       <c r="M73" s="22"/>
       <c r="N73" s="22"/>
       <c r="O73" s="18"/>
-      <c r="P73" s="81"/>
+      <c r="P73" s="60"/>
       <c r="Q73" s="44"/>
       <c r="R73" s="45"/>
       <c r="S73" s="44"/>
       <c r="T73" s="46"/>
       <c r="U73" s="44"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="38"/>
       <c r="B74" s="33"/>
       <c r="C74" s="39"/>
@@ -5474,14 +5487,14 @@
       <c r="M74" s="22"/>
       <c r="N74" s="22"/>
       <c r="O74" s="18"/>
-      <c r="P74" s="81"/>
+      <c r="P74" s="60"/>
       <c r="Q74" s="44"/>
       <c r="R74" s="45"/>
       <c r="S74" s="44"/>
       <c r="T74" s="46"/>
       <c r="U74" s="44"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="38"/>
       <c r="B75" s="33"/>
       <c r="C75" s="39"/>
@@ -5497,14 +5510,14 @@
       <c r="M75" s="22"/>
       <c r="N75" s="22"/>
       <c r="O75" s="18"/>
-      <c r="P75" s="81"/>
+      <c r="P75" s="60"/>
       <c r="Q75" s="44"/>
       <c r="R75" s="45"/>
       <c r="S75" s="44"/>
       <c r="T75" s="46"/>
       <c r="U75" s="44"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="38"/>
       <c r="B76" s="33"/>
       <c r="C76" s="39"/>
@@ -5520,820 +5533,820 @@
       <c r="M76" s="22"/>
       <c r="N76" s="22"/>
       <c r="O76" s="18"/>
-      <c r="P76" s="81"/>
+      <c r="P76" s="60"/>
       <c r="Q76" s="44"/>
       <c r="R76" s="45"/>
       <c r="S76" s="44"/>
       <c r="T76" s="46"/>
       <c r="U76" s="44"/>
     </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="285" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="286" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="287" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="288" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="289" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="290" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="285" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="286" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="287" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="288" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="289" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="290" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="34" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="34" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="34" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="34" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="34" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="34" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="34" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="34" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" s="34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="34" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" s="34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" s="34" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" s="34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" s="34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" s="34" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" s="34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" s="34" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" s="34" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" s="34" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" s="34" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" s="34" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" s="34" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" s="34" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" s="34" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" s="34" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" s="34" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" s="34" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" s="34" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" s="34" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" s="34" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" s="34" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" s="34" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" s="34" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" s="34" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" s="34" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" s="34" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" s="34" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" s="34" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" s="34" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" s="34" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" s="34" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" s="34" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" s="34" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" s="34" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" s="34" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" s="34" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" s="34" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" s="34" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" s="34" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" s="34" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" s="34" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" s="34" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" s="34" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" s="34" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" s="34" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" s="34" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" s="34" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" s="34" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" s="34" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369" s="34" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" s="34" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371" s="34" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372" s="34" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" s="34" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" s="34" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375" s="34" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376" s="34" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" s="34" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378" s="34" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379" s="34" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" s="34" t="s">
         <v>296</v>
       </c>
@@ -6343,12 +6356,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -6363,6 +6370,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W43:W46">
@@ -6436,27 +6449,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1"/>
+    <col min="14" max="14" width="24.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6473,7 +6486,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -6497,7 +6510,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -6516,7 +6529,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -6535,7 +6548,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -6551,7 +6564,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -6568,7 +6581,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -6585,7 +6598,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -6600,7 +6613,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -6615,7 +6628,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -6630,7 +6643,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -6645,7 +6658,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6660,7 +6673,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -6675,7 +6688,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6690,7 +6703,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -6705,7 +6718,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -6720,7 +6733,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -6734,7 +6747,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -6748,7 +6761,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -6762,7 +6775,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -6776,7 +6789,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -6791,7 +6804,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -6806,7 +6819,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -6821,7 +6834,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -6836,7 +6849,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -6851,7 +6864,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -6866,7 +6879,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -6881,7 +6894,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6896,7 +6909,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -6911,7 +6924,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -6926,7 +6939,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -6941,7 +6954,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -6956,7 +6969,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -6971,7 +6984,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -6986,7 +6999,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -7001,7 +7014,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -7016,7 +7029,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -7031,7 +7044,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -7046,7 +7059,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -7061,7 +7074,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -7076,7 +7089,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -7091,7 +7104,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -7106,7 +7119,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -7121,7 +7134,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -7136,7 +7149,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -7151,7 +7164,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -7166,7 +7179,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -7181,7 +7194,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -7196,7 +7209,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -7208,7 +7221,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -7220,7 +7233,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -7233,7 +7246,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -7246,7 +7259,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -7259,7 +7272,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -7272,7 +7285,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -7285,7 +7298,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -7298,7 +7311,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -7311,7 +7324,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -7324,7 +7337,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -7337,7 +7350,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -7350,7 +7363,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -7363,7 +7376,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -7376,7 +7389,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -7389,7 +7402,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -7402,7 +7415,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -7415,7 +7428,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -7428,7 +7441,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -7441,7 +7454,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -7454,7 +7467,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -7467,7 +7480,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -7480,7 +7493,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -7494,7 +7507,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -7508,7 +7521,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -7522,7 +7535,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -7536,7 +7549,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -7550,7 +7563,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -7564,7 +7577,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -7578,7 +7591,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -7592,7 +7605,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -7606,7 +7619,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -7620,7 +7633,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -7634,7 +7647,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -7648,7 +7661,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -7662,7 +7675,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -7676,7 +7689,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -7690,7 +7703,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -7704,7 +7717,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -7718,7 +7731,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -7732,7 +7745,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -7746,7 +7759,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -7760,7 +7773,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -7774,7 +7787,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -7788,7 +7801,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -7802,7 +7815,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -7816,7 +7829,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -7830,7 +7843,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -7844,7 +7857,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -7858,7 +7871,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -7872,7 +7885,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -7886,7 +7899,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -7900,7 +7913,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -7914,7 +7927,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -7928,7 +7941,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -7942,7 +7955,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -7956,7 +7969,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -7970,7 +7983,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -7984,7 +7997,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -7998,7 +8011,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -8012,7 +8025,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -8026,7 +8039,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -8040,7 +8053,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -8054,7 +8067,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -8068,7 +8081,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -8082,7 +8095,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -8096,7 +8109,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -8110,7 +8123,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -8124,7 +8137,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -8138,7 +8151,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -8152,7 +8165,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -8166,7 +8179,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -8180,7 +8193,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -8194,7 +8207,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -8208,7 +8221,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -8222,7 +8235,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -8236,7 +8249,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -8250,7 +8263,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -8264,7 +8277,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -8278,7 +8291,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -8292,7 +8305,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -8306,7 +8319,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -8320,7 +8333,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -8334,7 +8347,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -8348,7 +8361,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
